--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gastos" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="220">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -632,6 +632,12 @@
     <t xml:space="preserve">Gastos de publicaciones</t>
   </si>
   <si>
+    <t xml:space="preserve">Trabajos realizados por administraciones públicas y otras entidades públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trabajos realizados por instituciones sin fines de lucro</t>
   </si>
   <si>
@@ -886,11 +892,11 @@
   </sheetPr>
   <dimension ref="A1:G1781"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1737" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1743" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1223" activeCellId="0" sqref="C1223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.42"/>
@@ -45255,7 +45261,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="61.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.54"/>
@@ -46035,7 +46041,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="35.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.54"/>
@@ -46137,13 +46143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="66.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.54"/>
@@ -46241,127 +46247,139 @@
       <c r="A12" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="5" t="n">
         <v>63</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" s="5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="5" t="n">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>91</v>
       </c>
     </row>
@@ -46381,20 +46399,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46490,7 +46508,15 @@
         <v>2021</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>13312</v>
+        <v>13229</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13229</v>
       </c>
     </row>
   </sheetData>
